--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_compo_XAI_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_compo_XAI_swish.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>187.7593383789062</v>
+        <v>179.9766387939453</v>
       </c>
       <c r="H2" t="n">
-        <v>38.20542526245117</v>
+        <v>37.25408935546875</v>
       </c>
       <c r="I2" t="n">
-        <v>609.4690551757812</v>
+        <v>605.8209838867188</v>
       </c>
       <c r="J2" t="n">
-        <v>31.87102699279785</v>
+        <v>29.87679290771484</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>205.7818145751953</v>
+        <v>196.3215789794922</v>
       </c>
       <c r="H3" t="n">
-        <v>34.62489318847656</v>
+        <v>39.18161392211914</v>
       </c>
       <c r="I3" t="n">
-        <v>650.0316162109375</v>
+        <v>648.4833374023438</v>
       </c>
       <c r="J3" t="n">
-        <v>41.32267761230469</v>
+        <v>39.95363998413086</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>220.3870544433594</v>
+        <v>209.9817657470703</v>
       </c>
       <c r="H4" t="n">
-        <v>30.1179370880127</v>
+        <v>39.72538375854492</v>
       </c>
       <c r="I4" t="n">
-        <v>664.7586059570312</v>
+        <v>665.7099609375</v>
       </c>
       <c r="J4" t="n">
-        <v>49.78505706787109</v>
+        <v>51.28673553466797</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>240.0341949462891</v>
+        <v>228.8519744873047</v>
       </c>
       <c r="H5" t="n">
-        <v>26.62800788879395</v>
+        <v>41.56651306152344</v>
       </c>
       <c r="I5" t="n">
-        <v>671.9821166992188</v>
+        <v>675.4776000976562</v>
       </c>
       <c r="J5" t="n">
-        <v>58.76813125610352</v>
+        <v>68.29105377197266</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>260.8135681152344</v>
+        <v>249.6657562255859</v>
       </c>
       <c r="H6" t="n">
-        <v>26.71239280700684</v>
+        <v>43.52199554443359</v>
       </c>
       <c r="I6" t="n">
-        <v>659.2393798828125</v>
+        <v>664.0616455078125</v>
       </c>
       <c r="J6" t="n">
-        <v>63.67740249633789</v>
+        <v>90.34443664550781</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>156.2633666992188</v>
+        <v>152.5037994384766</v>
       </c>
       <c r="H7" t="n">
-        <v>44.63897705078125</v>
+        <v>33.84015655517578</v>
       </c>
       <c r="I7" t="n">
-        <v>435.8276672363281</v>
+        <v>435.2420349121094</v>
       </c>
       <c r="J7" t="n">
-        <v>16.75054168701172</v>
+        <v>22.2062873840332</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>163.6292724609375</v>
+        <v>158.0702056884766</v>
       </c>
       <c r="H8" t="n">
-        <v>40.21843338012695</v>
+        <v>33.02034759521484</v>
       </c>
       <c r="I8" t="n">
-        <v>491.6841125488281</v>
+        <v>490.6407775878906</v>
       </c>
       <c r="J8" t="n">
-        <v>18.91196632385254</v>
+        <v>24.01926612854004</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>173.8573760986328</v>
+        <v>166.5437164306641</v>
       </c>
       <c r="H9" t="n">
-        <v>35.2779541015625</v>
+        <v>32.97841262817383</v>
       </c>
       <c r="I9" t="n">
-        <v>539.4544067382812</v>
+        <v>539.15673828125</v>
       </c>
       <c r="J9" t="n">
-        <v>24.89957618713379</v>
+        <v>30.2169246673584</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>187.0898284912109</v>
+        <v>178.3989715576172</v>
       </c>
       <c r="H10" t="n">
-        <v>29.26708030700684</v>
+        <v>32.77127075195312</v>
       </c>
       <c r="I10" t="n">
-        <v>568.0185546875</v>
+        <v>569.6878662109375</v>
       </c>
       <c r="J10" t="n">
-        <v>32.40155792236328</v>
+        <v>41.87680053710938</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>207.0909271240234</v>
+        <v>197.4619140625</v>
       </c>
       <c r="H11" t="n">
-        <v>24.52899742126465</v>
+        <v>34.30961990356445</v>
       </c>
       <c r="I11" t="n">
-        <v>591.824462890625</v>
+        <v>595.9155883789062</v>
       </c>
       <c r="J11" t="n">
-        <v>41.33603668212891</v>
+        <v>60.15549468994141</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>229.667236328125</v>
+        <v>220.3731689453125</v>
       </c>
       <c r="H12" t="n">
-        <v>23.34235382080078</v>
+        <v>36.12070846557617</v>
       </c>
       <c r="I12" t="n">
-        <v>592.365478515625</v>
+        <v>598.1495971679688</v>
       </c>
       <c r="J12" t="n">
-        <v>47.94972991943359</v>
+        <v>84.40093994140625</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>275.0437622070312</v>
+        <v>268.8278503417969</v>
       </c>
       <c r="H13" t="n">
-        <v>27.71808433532715</v>
+        <v>42.42153167724609</v>
       </c>
       <c r="I13" t="n">
-        <v>590.6017456054688</v>
+        <v>600.0687255859375</v>
       </c>
       <c r="J13" t="n">
-        <v>59.73014068603516</v>
+        <v>124.3664932250977</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>153.6952819824219</v>
+        <v>153.4435119628906</v>
       </c>
       <c r="H14" t="n">
-        <v>52.17692184448242</v>
+        <v>32.97896957397461</v>
       </c>
       <c r="I14" t="n">
-        <v>231.6369323730469</v>
+        <v>239.0918426513672</v>
       </c>
       <c r="J14" t="n">
-        <v>32.57680892944336</v>
+        <v>28.92144012451172</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>152.8104095458984</v>
+        <v>150.5976867675781</v>
       </c>
       <c r="H15" t="n">
-        <v>47.84370422363281</v>
+        <v>32.04400253295898</v>
       </c>
       <c r="I15" t="n">
-        <v>301.3110656738281</v>
+        <v>306.8993835449219</v>
       </c>
       <c r="J15" t="n">
-        <v>27.95816230773926</v>
+        <v>29.26840782165527</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>154.8702239990234</v>
+        <v>150.6597900390625</v>
       </c>
       <c r="H16" t="n">
-        <v>43.08932495117188</v>
+        <v>30.95204734802246</v>
       </c>
       <c r="I16" t="n">
-        <v>361.9043884277344</v>
+        <v>366.2071533203125</v>
       </c>
       <c r="J16" t="n">
-        <v>23.75104522705078</v>
+        <v>30.45735359191895</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>160.2974548339844</v>
+        <v>153.8930816650391</v>
       </c>
       <c r="H17" t="n">
-        <v>36.96759033203125</v>
+        <v>30.39277267456055</v>
       </c>
       <c r="I17" t="n">
-        <v>425.5024108886719</v>
+        <v>428.9524230957031</v>
       </c>
       <c r="J17" t="n">
-        <v>21.47724723815918</v>
+        <v>35.21548080444336</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>166.1610107421875</v>
+        <v>158.5594024658203</v>
       </c>
       <c r="H18" t="n">
-        <v>32.40015029907227</v>
+        <v>30.02188682556152</v>
       </c>
       <c r="I18" t="n">
-        <v>455.6719665527344</v>
+        <v>459.4606018066406</v>
       </c>
       <c r="J18" t="n">
-        <v>23.30954551696777</v>
+        <v>41.82059860229492</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>183.2056579589844</v>
+        <v>174.4623565673828</v>
       </c>
       <c r="H19" t="n">
-        <v>25.16591835021973</v>
+        <v>30.30399703979492</v>
       </c>
       <c r="I19" t="n">
-        <v>497.243896484375</v>
+        <v>502.3690490722656</v>
       </c>
       <c r="J19" t="n">
-        <v>33.5947380065918</v>
+        <v>63.15171051025391</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>205.5201873779297</v>
+        <v>197.5818634033203</v>
       </c>
       <c r="H20" t="n">
-        <v>22.06772041320801</v>
+        <v>30.5255241394043</v>
       </c>
       <c r="I20" t="n">
-        <v>513.0673217773438</v>
+        <v>520.173095703125</v>
       </c>
       <c r="J20" t="n">
-        <v>48.12950897216797</v>
+        <v>90.88806915283203</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>253.00732421875</v>
+        <v>249.6411895751953</v>
       </c>
       <c r="H21" t="n">
-        <v>24.20174217224121</v>
+        <v>33.91422653198242</v>
       </c>
       <c r="I21" t="n">
-        <v>529.0672607421875</v>
+        <v>541.2567749023438</v>
       </c>
       <c r="J21" t="n">
-        <v>71.746337890625</v>
+        <v>135.4011688232422</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>338.635986328125</v>
+        <v>345.4893798828125</v>
       </c>
       <c r="H22" t="n">
-        <v>29.79738998413086</v>
+        <v>49.91424560546875</v>
       </c>
       <c r="I22" t="n">
-        <v>542.64892578125</v>
+        <v>569.5693969726562</v>
       </c>
       <c r="J22" t="n">
-        <v>102.1363525390625</v>
+        <v>190.3651275634766</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>158.3580322265625</v>
+        <v>157.9153137207031</v>
       </c>
       <c r="H23" t="n">
-        <v>53.1440544128418</v>
+        <v>31.82521820068359</v>
       </c>
       <c r="I23" t="n">
-        <v>130.4209442138672</v>
+        <v>142.3837738037109</v>
       </c>
       <c r="J23" t="n">
-        <v>49.09952545166016</v>
+        <v>37.88106155395508</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>156.2932891845703</v>
+        <v>154.3292999267578</v>
       </c>
       <c r="H24" t="n">
-        <v>49.38636016845703</v>
+        <v>30.94666481018066</v>
       </c>
       <c r="I24" t="n">
-        <v>190.4857788085938</v>
+        <v>201.2376556396484</v>
       </c>
       <c r="J24" t="n">
-        <v>46.6959342956543</v>
+        <v>38.97668075561523</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>154.9292602539062</v>
+        <v>151.2102508544922</v>
       </c>
       <c r="H25" t="n">
-        <v>45.00101089477539</v>
+        <v>29.76601791381836</v>
       </c>
       <c r="I25" t="n">
-        <v>237.3115386962891</v>
+        <v>247.2021331787109</v>
       </c>
       <c r="J25" t="n">
-        <v>46.63278198242188</v>
+        <v>42.1793212890625</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>155.6131439208984</v>
+        <v>149.9816589355469</v>
       </c>
       <c r="H26" t="n">
-        <v>39.59701156616211</v>
+        <v>28.88431739807129</v>
       </c>
       <c r="I26" t="n">
-        <v>290.2091979980469</v>
+        <v>298.5884094238281</v>
       </c>
       <c r="J26" t="n">
-        <v>46.30007171630859</v>
+        <v>47.28770065307617</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>160.5526580810547</v>
+        <v>153.1651763916016</v>
       </c>
       <c r="H27" t="n">
-        <v>32.86513519287109</v>
+        <v>28.35105514526367</v>
       </c>
       <c r="I27" t="n">
-        <v>351.3201293945312</v>
+        <v>357.9992980957031</v>
       </c>
       <c r="J27" t="n">
-        <v>46.46833419799805</v>
+        <v>56.58642578125</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>169.1411285400391</v>
+        <v>160.9841156005859</v>
       </c>
       <c r="H28" t="n">
-        <v>27.12397956848145</v>
+        <v>28.06579780578613</v>
       </c>
       <c r="I28" t="n">
-        <v>395.0824890136719</v>
+        <v>401.2630920410156</v>
       </c>
       <c r="J28" t="n">
-        <v>53.30783462524414</v>
+        <v>72.87629699707031</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>192.8898162841797</v>
+        <v>186.232177734375</v>
       </c>
       <c r="H29" t="n">
-        <v>22.39694976806641</v>
+        <v>26.62030410766602</v>
       </c>
       <c r="I29" t="n">
-        <v>436.1593627929688</v>
+        <v>444.5856628417969</v>
       </c>
       <c r="J29" t="n">
-        <v>72.86570739746094</v>
+        <v>107.5612487792969</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>249.5253601074219</v>
+        <v>249.9423217773438</v>
       </c>
       <c r="H30" t="n">
-        <v>24.20760917663574</v>
+        <v>29.5600757598877</v>
       </c>
       <c r="I30" t="n">
-        <v>488.7449035644531</v>
+        <v>507.22802734375</v>
       </c>
       <c r="J30" t="n">
-        <v>95.42200469970703</v>
+        <v>155.3555145263672</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>335.1827697753906</v>
+        <v>346.9195861816406</v>
       </c>
       <c r="H31" t="n">
-        <v>32.34092330932617</v>
+        <v>46.62088775634766</v>
       </c>
       <c r="I31" t="n">
-        <v>501.5503234863281</v>
+        <v>537.0680541992188</v>
       </c>
       <c r="J31" t="n">
-        <v>133.5425262451172</v>
+        <v>214.130615234375</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>164.4620666503906</v>
+        <v>163.021728515625</v>
       </c>
       <c r="H32" t="n">
-        <v>52.82892608642578</v>
+        <v>30.75051879882812</v>
       </c>
       <c r="I32" t="n">
-        <v>39.71992111206055</v>
+        <v>54.17394638061523</v>
       </c>
       <c r="J32" t="n">
-        <v>66.01054382324219</v>
+        <v>47.86145782470703</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>161.7828521728516</v>
+        <v>158.8411712646484</v>
       </c>
       <c r="H33" t="n">
-        <v>48.68298721313477</v>
+        <v>29.52802848815918</v>
       </c>
       <c r="I33" t="n">
-        <v>84.38912963867188</v>
+        <v>99.00566864013672</v>
       </c>
       <c r="J33" t="n">
-        <v>69.91249084472656</v>
+        <v>51.82424926757812</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>159.3628845214844</v>
+        <v>155.1410217285156</v>
       </c>
       <c r="H34" t="n">
-        <v>44.95780563354492</v>
+        <v>28.65460968017578</v>
       </c>
       <c r="I34" t="n">
-        <v>127.1793365478516</v>
+        <v>140.8182067871094</v>
       </c>
       <c r="J34" t="n">
-        <v>71.95925903320312</v>
+        <v>55.34552001953125</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>158.2648773193359</v>
+        <v>152.5132598876953</v>
       </c>
       <c r="H35" t="n">
-        <v>40.01526260375977</v>
+        <v>27.7050895690918</v>
       </c>
       <c r="I35" t="n">
-        <v>175.0029907226562</v>
+        <v>186.9487457275391</v>
       </c>
       <c r="J35" t="n">
-        <v>74.76204681396484</v>
+        <v>60.8699951171875</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>158.8215484619141</v>
+        <v>151.7569274902344</v>
       </c>
       <c r="H36" t="n">
-        <v>34.45157623291016</v>
+        <v>27.37192726135254</v>
       </c>
       <c r="I36" t="n">
-        <v>237.1104736328125</v>
+        <v>246.1636962890625</v>
       </c>
       <c r="J36" t="n">
-        <v>76.49707794189453</v>
+        <v>69.46842956542969</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5196533203125</v>
+        <v>155.8046417236328</v>
       </c>
       <c r="H37" t="n">
-        <v>28.49149703979492</v>
+        <v>26.52426147460938</v>
       </c>
       <c r="I37" t="n">
-        <v>281.3624572753906</v>
+        <v>288.1708984375</v>
       </c>
       <c r="J37" t="n">
-        <v>88.64347839355469</v>
+        <v>88.53833770751953</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>186.5726165771484</v>
+        <v>180.5251617431641</v>
       </c>
       <c r="H38" t="n">
-        <v>22.87131881713867</v>
+        <v>23.25578117370605</v>
       </c>
       <c r="I38" t="n">
-        <v>357.9401550292969</v>
+        <v>365.2651672363281</v>
       </c>
       <c r="J38" t="n">
-        <v>100.2641830444336</v>
+        <v>119.8075714111328</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>238.4364318847656</v>
+        <v>241.1914520263672</v>
       </c>
       <c r="H39" t="n">
-        <v>25.82297325134277</v>
+        <v>23.81652641296387</v>
       </c>
       <c r="I39" t="n">
-        <v>418.0305786132812</v>
+        <v>437.0435485839844</v>
       </c>
       <c r="J39" t="n">
-        <v>130.7870483398438</v>
+        <v>177.2533721923828</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>333.4393005371094</v>
+        <v>347.8937072753906</v>
       </c>
       <c r="H40" t="n">
-        <v>35.51179122924805</v>
+        <v>45.63919067382812</v>
       </c>
       <c r="I40" t="n">
-        <v>478.1557312011719</v>
+        <v>519.9348754882812</v>
       </c>
       <c r="J40" t="n">
-        <v>152.1785888671875</v>
+        <v>228.3119659423828</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2502288818359</v>
+        <v>168.3251342773438</v>
       </c>
       <c r="H41" t="n">
-        <v>51.173095703125</v>
+        <v>29.46594619750977</v>
       </c>
       <c r="I41" t="n">
-        <v>-39.45584487915039</v>
+        <v>-24.07782745361328</v>
       </c>
       <c r="J41" t="n">
-        <v>81.39377593994141</v>
+        <v>57.65219879150391</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>169.6292877197266</v>
+        <v>165.4351043701172</v>
       </c>
       <c r="H42" t="n">
-        <v>47.16989517211914</v>
+        <v>28.05742835998535</v>
       </c>
       <c r="I42" t="n">
-        <v>-10.05640602111816</v>
+        <v>6.320114612579346</v>
       </c>
       <c r="J42" t="n">
-        <v>88.54999542236328</v>
+        <v>62.32204818725586</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>167.6140441894531</v>
+        <v>162.2944641113281</v>
       </c>
       <c r="H43" t="n">
-        <v>43.35918426513672</v>
+        <v>27.07018089294434</v>
       </c>
       <c r="I43" t="n">
-        <v>21.56244277954102</v>
+        <v>36.95194244384766</v>
       </c>
       <c r="J43" t="n">
-        <v>95.10405731201172</v>
+        <v>67.36373138427734</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>165.7731475830078</v>
+        <v>159.3897857666016</v>
       </c>
       <c r="H44" t="n">
-        <v>38.85861968994141</v>
+        <v>26.16450881958008</v>
       </c>
       <c r="I44" t="n">
-        <v>69.54108428955078</v>
+        <v>83.01961517333984</v>
       </c>
       <c r="J44" t="n">
-        <v>99.51205444335938</v>
+        <v>72.42432403564453</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>164.3755493164062</v>
+        <v>157.1098175048828</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94300079345703</v>
+        <v>25.68943405151367</v>
       </c>
       <c r="I45" t="n">
-        <v>118.8915252685547</v>
+        <v>128.8049926757812</v>
       </c>
       <c r="J45" t="n">
-        <v>106.6174926757812</v>
+        <v>81.82669067382812</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4355163574219</v>
+        <v>160.1089935302734</v>
       </c>
       <c r="H46" t="n">
-        <v>28.17555809020996</v>
+        <v>24.98279571533203</v>
       </c>
       <c r="I46" t="n">
-        <v>195.7824249267578</v>
+        <v>201.4880828857422</v>
       </c>
       <c r="J46" t="n">
-        <v>115.3943939208984</v>
+        <v>101.0351486206055</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>181.7370758056641</v>
+        <v>176.3896026611328</v>
       </c>
       <c r="H47" t="n">
-        <v>24.13088989257812</v>
+        <v>21.76565361022949</v>
       </c>
       <c r="I47" t="n">
-        <v>266.7563171386719</v>
+        <v>271.9720153808594</v>
       </c>
       <c r="J47" t="n">
-        <v>129.1654510498047</v>
+        <v>130.8252105712891</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>237.2800445556641</v>
+        <v>242.034912109375</v>
       </c>
       <c r="H48" t="n">
-        <v>27.54129219055176</v>
+        <v>22.49149513244629</v>
       </c>
       <c r="I48" t="n">
-        <v>374.5636901855469</v>
+        <v>394.2418212890625</v>
       </c>
       <c r="J48" t="n">
-        <v>151.4840393066406</v>
+        <v>190.9713134765625</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>328.0287780761719</v>
+        <v>344.7410888671875</v>
       </c>
       <c r="H49" t="n">
-        <v>39.06486892700195</v>
+        <v>46.25636291503906</v>
       </c>
       <c r="I49" t="n">
-        <v>448.3633728027344</v>
+        <v>494.0201110839844</v>
       </c>
       <c r="J49" t="n">
-        <v>172.8314514160156</v>
+        <v>243.7754516601562</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>179.3073120117188</v>
+        <v>174.2476806640625</v>
       </c>
       <c r="H50" t="n">
-        <v>47.15061569213867</v>
+        <v>27.35542488098145</v>
       </c>
       <c r="I50" t="n">
-        <v>-108.4115829467773</v>
+        <v>-92.97235107421875</v>
       </c>
       <c r="J50" t="n">
-        <v>97.96058654785156</v>
+        <v>68.75092315673828</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>178.9670104980469</v>
+        <v>172.9969329833984</v>
       </c>
       <c r="H51" t="n">
-        <v>43.54241943359375</v>
+        <v>25.9286003112793</v>
       </c>
       <c r="I51" t="n">
-        <v>-87.58307647705078</v>
+        <v>-71.40711975097656</v>
       </c>
       <c r="J51" t="n">
-        <v>105.3299407958984</v>
+        <v>72.68698883056641</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>178.8105010986328</v>
+        <v>172.0478973388672</v>
       </c>
       <c r="H52" t="n">
-        <v>39.9862174987793</v>
+        <v>24.61868476867676</v>
       </c>
       <c r="I52" t="n">
-        <v>-70.33880615234375</v>
+        <v>-54.73490524291992</v>
       </c>
       <c r="J52" t="n">
-        <v>112.5864868164062</v>
+        <v>76.74506378173828</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>175.8967132568359</v>
+        <v>168.6350402832031</v>
       </c>
       <c r="H53" t="n">
-        <v>36.62131881713867</v>
+        <v>24.12240028381348</v>
       </c>
       <c r="I53" t="n">
-        <v>-29.5229434967041</v>
+        <v>-16.40309715270996</v>
       </c>
       <c r="J53" t="n">
-        <v>118.5520248413086</v>
+        <v>81.11581420898438</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>173.6161651611328</v>
+        <v>165.9680328369141</v>
       </c>
       <c r="H54" t="n">
-        <v>32.07380676269531</v>
+        <v>23.81582641601562</v>
       </c>
       <c r="I54" t="n">
-        <v>25.80020713806152</v>
+        <v>34.03464889526367</v>
       </c>
       <c r="J54" t="n">
-        <v>127.406005859375</v>
+        <v>90.49518585205078</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>174.2816619873047</v>
+        <v>166.9949188232422</v>
       </c>
       <c r="H55" t="n">
-        <v>27.6604061126709</v>
+        <v>23.25672912597656</v>
       </c>
       <c r="I55" t="n">
-        <v>91.19012451171875</v>
+        <v>94.08162689208984</v>
       </c>
       <c r="J55" t="n">
-        <v>138.1891479492188</v>
+        <v>107.0514297485352</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>185.005859375</v>
+        <v>180.6329345703125</v>
       </c>
       <c r="H56" t="n">
-        <v>24.72018432617188</v>
+        <v>20.69558906555176</v>
       </c>
       <c r="I56" t="n">
-        <v>194.0654296875</v>
+        <v>196.1434936523438</v>
       </c>
       <c r="J56" t="n">
-        <v>149.9880523681641</v>
+        <v>139.4230194091797</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>228.4935150146484</v>
+        <v>233.0327606201172</v>
       </c>
       <c r="H57" t="n">
-        <v>27.78556251525879</v>
+        <v>21.13805198669434</v>
       </c>
       <c r="I57" t="n">
-        <v>322.7808837890625</v>
+        <v>338.5420837402344</v>
       </c>
       <c r="J57" t="n">
-        <v>163.7731475830078</v>
+        <v>192.2789764404297</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>316.55419921875</v>
+        <v>333.8228454589844</v>
       </c>
       <c r="H58" t="n">
-        <v>39.95666122436523</v>
+        <v>46.4339599609375</v>
       </c>
       <c r="I58" t="n">
-        <v>413.4909362792969</v>
+        <v>458.0748596191406</v>
       </c>
       <c r="J58" t="n">
-        <v>188.7794952392578</v>
+        <v>254.3246002197266</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>190.6306762695312</v>
+        <v>182.9472808837891</v>
       </c>
       <c r="H59" t="n">
-        <v>38.739501953125</v>
+        <v>22.97782897949219</v>
       </c>
       <c r="I59" t="n">
-        <v>-166.0569915771484</v>
+        <v>-151.569580078125</v>
       </c>
       <c r="J59" t="n">
-        <v>119.2702865600586</v>
+        <v>81.54673004150391</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>189.5677642822266</v>
+        <v>181.588623046875</v>
       </c>
       <c r="H60" t="n">
-        <v>36.02424621582031</v>
+        <v>22.18337631225586</v>
       </c>
       <c r="I60" t="n">
-        <v>-145.0120849609375</v>
+        <v>-132.0975952148438</v>
       </c>
       <c r="J60" t="n">
-        <v>125.802604675293</v>
+        <v>84.47854614257812</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>187.1262664794922</v>
+        <v>179.0693359375</v>
       </c>
       <c r="H61" t="n">
-        <v>33.04098510742188</v>
+        <v>21.8122673034668</v>
       </c>
       <c r="I61" t="n">
-        <v>-101.6595077514648</v>
+        <v>-91.36423492431641</v>
       </c>
       <c r="J61" t="n">
-        <v>131.9097137451172</v>
+        <v>88.02870941162109</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>185.7787017822266</v>
+        <v>177.7878265380859</v>
       </c>
       <c r="H62" t="n">
-        <v>29.90266227722168</v>
+        <v>21.6114616394043</v>
       </c>
       <c r="I62" t="n">
-        <v>-57.58355331420898</v>
+        <v>-51.26272583007812</v>
       </c>
       <c r="J62" t="n">
-        <v>138.4692077636719</v>
+        <v>93.82625579833984</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>184.0646057128906</v>
+        <v>176.9291229248047</v>
       </c>
       <c r="H63" t="n">
-        <v>26.43744850158691</v>
+        <v>21.73728561401367</v>
       </c>
       <c r="I63" t="n">
-        <v>14.09173202514648</v>
+        <v>13.08128356933594</v>
       </c>
       <c r="J63" t="n">
-        <v>151.7220916748047</v>
+        <v>110.9309005737305</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>192.201171875</v>
+        <v>187.9136352539062</v>
       </c>
       <c r="H64" t="n">
-        <v>24.37481498718262</v>
+        <v>20.36422920227051</v>
       </c>
       <c r="I64" t="n">
-        <v>124.4555587768555</v>
+        <v>121.560417175293</v>
       </c>
       <c r="J64" t="n">
-        <v>159.6849670410156</v>
+        <v>137.0336456298828</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>222.977294921875</v>
+        <v>227.0874633789062</v>
       </c>
       <c r="H65" t="n">
-        <v>27.95048713684082</v>
+        <v>21.86165046691895</v>
       </c>
       <c r="I65" t="n">
-        <v>247.6589813232422</v>
+        <v>255.3296356201172</v>
       </c>
       <c r="J65" t="n">
-        <v>178.417236328125</v>
+        <v>191.6862030029297</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>203.36181640625</v>
+        <v>194.5930023193359</v>
       </c>
       <c r="H66" t="n">
-        <v>31.00605010986328</v>
+        <v>18.91109466552734</v>
       </c>
       <c r="I66" t="n">
-        <v>-205.5222778320312</v>
+        <v>-194.1848602294922</v>
       </c>
       <c r="J66" t="n">
-        <v>132.2602691650391</v>
+        <v>87.81034088134766</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>201.0985412597656</v>
+        <v>192.5749969482422</v>
       </c>
       <c r="H67" t="n">
-        <v>28.94737815856934</v>
+        <v>19.20517158508301</v>
       </c>
       <c r="I67" t="n">
-        <v>-168.4868011474609</v>
+        <v>-161.068359375</v>
       </c>
       <c r="J67" t="n">
-        <v>138.7852020263672</v>
+        <v>91.34804534912109</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>197.9826354980469</v>
+        <v>189.8651733398438</v>
       </c>
       <c r="H68" t="n">
-        <v>26.97201538085938</v>
+        <v>19.87074851989746</v>
       </c>
       <c r="I68" t="n">
-        <v>-121.6459121704102</v>
+        <v>-119.5554428100586</v>
       </c>
       <c r="J68" t="n">
-        <v>146.7473602294922</v>
+        <v>97.77185821533203</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>196.4437561035156</v>
+        <v>189.5093994140625</v>
       </c>
       <c r="H69" t="n">
-        <v>24.9847412109375</v>
+        <v>20.68015098571777</v>
       </c>
       <c r="I69" t="n">
-        <v>-46.80023956298828</v>
+        <v>-51.05009078979492</v>
       </c>
       <c r="J69" t="n">
-        <v>155.7726745605469</v>
+        <v>110.1130599975586</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>198.1419525146484</v>
+        <v>194.0411987304688</v>
       </c>
       <c r="H70" t="n">
-        <v>24.50798225402832</v>
+        <v>20.87379264831543</v>
       </c>
       <c r="I70" t="n">
-        <v>57.59344482421875</v>
+        <v>50.06910705566406</v>
       </c>
       <c r="J70" t="n">
-        <v>167.3867797851562</v>
+        <v>135.5113830566406</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_compo_XAI_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_compo_XAI_swish.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>179.9766387939453</v>
+        <v>191.8148956298828</v>
       </c>
       <c r="H2" t="n">
-        <v>37.25408935546875</v>
+        <v>28.13424682617188</v>
       </c>
       <c r="I2" t="n">
-        <v>605.8209838867188</v>
+        <v>613.9647827148438</v>
       </c>
       <c r="J2" t="n">
-        <v>29.87679290771484</v>
+        <v>44.49200820922852</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>196.3215789794922</v>
+        <v>208.4021606445312</v>
       </c>
       <c r="H3" t="n">
-        <v>39.18161392211914</v>
+        <v>29.4507999420166</v>
       </c>
       <c r="I3" t="n">
-        <v>648.4833374023438</v>
+        <v>658.387451171875</v>
       </c>
       <c r="J3" t="n">
-        <v>39.95363998413086</v>
+        <v>50.90641403198242</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>209.9817657470703</v>
+        <v>221.0123901367188</v>
       </c>
       <c r="H4" t="n">
-        <v>39.72538375854492</v>
+        <v>30.83166313171387</v>
       </c>
       <c r="I4" t="n">
-        <v>665.7099609375</v>
+        <v>678.1013793945312</v>
       </c>
       <c r="J4" t="n">
-        <v>51.28673553466797</v>
+        <v>54.63930130004883</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>228.8519744873047</v>
+        <v>238.6666412353516</v>
       </c>
       <c r="H5" t="n">
-        <v>41.56651306152344</v>
+        <v>34.48694610595703</v>
       </c>
       <c r="I5" t="n">
-        <v>675.4776000976562</v>
+        <v>690.2775268554688</v>
       </c>
       <c r="J5" t="n">
-        <v>68.29105377197266</v>
+        <v>57.02053833007812</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>249.6657562255859</v>
+        <v>258.3482360839844</v>
       </c>
       <c r="H6" t="n">
-        <v>43.52199554443359</v>
+        <v>38.23048400878906</v>
       </c>
       <c r="I6" t="n">
-        <v>664.0616455078125</v>
+        <v>680.0357055664062</v>
       </c>
       <c r="J6" t="n">
-        <v>90.34443664550781</v>
+        <v>57.29647827148438</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>152.5037994384766</v>
+        <v>159.2943115234375</v>
       </c>
       <c r="H7" t="n">
-        <v>33.84015655517578</v>
+        <v>34.81740188598633</v>
       </c>
       <c r="I7" t="n">
-        <v>435.2420349121094</v>
+        <v>445.2291564941406</v>
       </c>
       <c r="J7" t="n">
-        <v>22.2062873840332</v>
+        <v>29.87407875061035</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>158.0702056884766</v>
+        <v>166.0624542236328</v>
       </c>
       <c r="H8" t="n">
-        <v>33.02034759521484</v>
+        <v>29.47471809387207</v>
       </c>
       <c r="I8" t="n">
-        <v>490.6407775878906</v>
+        <v>501.6167907714844</v>
       </c>
       <c r="J8" t="n">
-        <v>24.01926612854004</v>
+        <v>34.45960235595703</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>166.5437164306641</v>
+        <v>175.5412445068359</v>
       </c>
       <c r="H9" t="n">
-        <v>32.97841262817383</v>
+        <v>24.60026168823242</v>
       </c>
       <c r="I9" t="n">
-        <v>539.15673828125</v>
+        <v>552.0724487304688</v>
       </c>
       <c r="J9" t="n">
-        <v>30.2169246673584</v>
+        <v>40.04375076293945</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>178.3989715576172</v>
+        <v>187.5223388671875</v>
       </c>
       <c r="H10" t="n">
-        <v>32.77127075195312</v>
+        <v>21.75423431396484</v>
       </c>
       <c r="I10" t="n">
-        <v>569.6878662109375</v>
+        <v>585.4033813476562</v>
       </c>
       <c r="J10" t="n">
-        <v>41.87680053710938</v>
+        <v>44.81020355224609</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>197.4619140625</v>
+        <v>206.6136932373047</v>
       </c>
       <c r="H11" t="n">
-        <v>34.30961990356445</v>
+        <v>23.75497055053711</v>
       </c>
       <c r="I11" t="n">
-        <v>595.9155883789062</v>
+        <v>614.040771484375</v>
       </c>
       <c r="J11" t="n">
-        <v>60.15549468994141</v>
+        <v>50.01808929443359</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>220.3731689453125</v>
+        <v>229.0166015625</v>
       </c>
       <c r="H12" t="n">
-        <v>36.12070846557617</v>
+        <v>29.51615905761719</v>
       </c>
       <c r="I12" t="n">
-        <v>598.1495971679688</v>
+        <v>617.1091918945312</v>
       </c>
       <c r="J12" t="n">
-        <v>84.40093994140625</v>
+        <v>56.46708297729492</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>268.8278503417969</v>
+        <v>275.9030456542969</v>
       </c>
       <c r="H13" t="n">
-        <v>42.42153167724609</v>
+        <v>41.49697113037109</v>
       </c>
       <c r="I13" t="n">
-        <v>600.0687255859375</v>
+        <v>615.6867065429688</v>
       </c>
       <c r="J13" t="n">
-        <v>124.3664932250977</v>
+        <v>78.14930725097656</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>153.4435119628906</v>
+        <v>157.4089508056641</v>
       </c>
       <c r="H14" t="n">
-        <v>32.97896957397461</v>
+        <v>42.99628829956055</v>
       </c>
       <c r="I14" t="n">
-        <v>239.0918426513672</v>
+        <v>248.90576171875</v>
       </c>
       <c r="J14" t="n">
-        <v>28.92144012451172</v>
+        <v>33.30192565917969</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>150.5976867675781</v>
+        <v>154.7598876953125</v>
       </c>
       <c r="H15" t="n">
-        <v>32.04400253295898</v>
+        <v>38.64297866821289</v>
       </c>
       <c r="I15" t="n">
-        <v>306.8993835449219</v>
+        <v>318.2997741699219</v>
       </c>
       <c r="J15" t="n">
-        <v>29.26840782165527</v>
+        <v>31.15139198303223</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>150.6597900390625</v>
+        <v>155.5030059814453</v>
       </c>
       <c r="H16" t="n">
-        <v>30.95204734802246</v>
+        <v>33.42716598510742</v>
       </c>
       <c r="I16" t="n">
-        <v>366.2071533203125</v>
+        <v>379.4923095703125</v>
       </c>
       <c r="J16" t="n">
-        <v>30.45735359191895</v>
+        <v>31.71051216125488</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>153.8930816650391</v>
+        <v>159.8984069824219</v>
       </c>
       <c r="H17" t="n">
-        <v>30.39277267456055</v>
+        <v>26.68281555175781</v>
       </c>
       <c r="I17" t="n">
-        <v>428.9524230957031</v>
+        <v>445.0130310058594</v>
       </c>
       <c r="J17" t="n">
-        <v>35.21548080444336</v>
+        <v>35.39321136474609</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>158.5594024658203</v>
+        <v>165.1939697265625</v>
       </c>
       <c r="H18" t="n">
-        <v>30.02188682556152</v>
+        <v>22.4709587097168</v>
       </c>
       <c r="I18" t="n">
-        <v>459.4606018066406</v>
+        <v>477.551513671875</v>
       </c>
       <c r="J18" t="n">
-        <v>41.82059860229492</v>
+        <v>38.96527099609375</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>174.4623565673828</v>
+        <v>182.1457366943359</v>
       </c>
       <c r="H19" t="n">
-        <v>30.30399703979492</v>
+        <v>19.06496620178223</v>
       </c>
       <c r="I19" t="n">
-        <v>502.3690490722656</v>
+        <v>523.0979614257812</v>
       </c>
       <c r="J19" t="n">
-        <v>63.15171051025391</v>
+        <v>48.41208648681641</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>197.5818634033203</v>
+        <v>205.5260772705078</v>
       </c>
       <c r="H20" t="n">
-        <v>30.5255241394043</v>
+        <v>24.0213508605957</v>
       </c>
       <c r="I20" t="n">
-        <v>520.173095703125</v>
+        <v>540.5579223632812</v>
       </c>
       <c r="J20" t="n">
-        <v>90.88806915283203</v>
+        <v>62.88442230224609</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>249.6411895751953</v>
+        <v>256.3458557128906</v>
       </c>
       <c r="H21" t="n">
-        <v>33.91422653198242</v>
+        <v>37.29943084716797</v>
       </c>
       <c r="I21" t="n">
-        <v>541.2567749023438</v>
+        <v>555.3616333007812</v>
       </c>
       <c r="J21" t="n">
-        <v>135.4011688232422</v>
+        <v>94.36669921875</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>345.4893798828125</v>
+        <v>345.7858581542969</v>
       </c>
       <c r="H22" t="n">
-        <v>49.91424560546875</v>
+        <v>52.65180969238281</v>
       </c>
       <c r="I22" t="n">
-        <v>569.5693969726562</v>
+        <v>569.9553833007812</v>
       </c>
       <c r="J22" t="n">
-        <v>190.3651275634766</v>
+        <v>143.8989410400391</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>157.9153137207031</v>
+        <v>162.1277313232422</v>
       </c>
       <c r="H23" t="n">
-        <v>31.82521820068359</v>
+        <v>42.16171646118164</v>
       </c>
       <c r="I23" t="n">
-        <v>142.3837738037109</v>
+        <v>152.9209442138672</v>
       </c>
       <c r="J23" t="n">
-        <v>37.88106155395508</v>
+        <v>44.90810775756836</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>154.3292999267578</v>
+        <v>157.9824066162109</v>
       </c>
       <c r="H24" t="n">
-        <v>30.94666481018066</v>
+        <v>38.8756217956543</v>
       </c>
       <c r="I24" t="n">
-        <v>201.2376556396484</v>
+        <v>213.1105194091797</v>
       </c>
       <c r="J24" t="n">
-        <v>38.97668075561523</v>
+        <v>42.37400054931641</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>151.2102508544922</v>
+        <v>154.6377716064453</v>
       </c>
       <c r="H25" t="n">
-        <v>29.76601791381836</v>
+        <v>34.95781326293945</v>
       </c>
       <c r="I25" t="n">
-        <v>247.2021331787109</v>
+        <v>261.3357238769531</v>
       </c>
       <c r="J25" t="n">
-        <v>42.1793212890625</v>
+        <v>42.10530471801758</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>149.9816589355469</v>
+        <v>153.7219848632812</v>
       </c>
       <c r="H26" t="n">
-        <v>28.88431739807129</v>
+        <v>29.85664558410645</v>
       </c>
       <c r="I26" t="n">
-        <v>298.5884094238281</v>
+        <v>315.5379638671875</v>
       </c>
       <c r="J26" t="n">
-        <v>47.28770065307617</v>
+        <v>43.25829315185547</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>153.1651763916016</v>
+        <v>157.8643646240234</v>
       </c>
       <c r="H27" t="n">
-        <v>28.35105514526367</v>
+        <v>23.42759323120117</v>
       </c>
       <c r="I27" t="n">
-        <v>357.9992980957031</v>
+        <v>377.7914123535156</v>
       </c>
       <c r="J27" t="n">
-        <v>56.58642578125</v>
+        <v>47.06327438354492</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>160.9841156005859</v>
+        <v>166.8121337890625</v>
       </c>
       <c r="H28" t="n">
-        <v>28.06579780578613</v>
+        <v>19.07193374633789</v>
       </c>
       <c r="I28" t="n">
-        <v>401.2630920410156</v>
+        <v>422.5469970703125</v>
       </c>
       <c r="J28" t="n">
-        <v>72.87629699707031</v>
+        <v>55.98593521118164</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>186.232177734375</v>
+        <v>193.1454620361328</v>
       </c>
       <c r="H29" t="n">
-        <v>26.62030410766602</v>
+        <v>21.77356719970703</v>
       </c>
       <c r="I29" t="n">
-        <v>444.5856628417969</v>
+        <v>463.6968688964844</v>
       </c>
       <c r="J29" t="n">
-        <v>107.5612487792969</v>
+        <v>78.94977569580078</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>249.9423217773438</v>
+        <v>255.559326171875</v>
       </c>
       <c r="H30" t="n">
-        <v>29.5600757598877</v>
+        <v>37.47606658935547</v>
       </c>
       <c r="I30" t="n">
-        <v>507.22802734375</v>
+        <v>517.0770874023438</v>
       </c>
       <c r="J30" t="n">
-        <v>155.3555145263672</v>
+        <v>115.4961929321289</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>346.9195861816406</v>
+        <v>345.4916687011719</v>
       </c>
       <c r="H31" t="n">
-        <v>46.62088775634766</v>
+        <v>51.23025131225586</v>
       </c>
       <c r="I31" t="n">
-        <v>537.0680541992188</v>
+        <v>529.9456176757812</v>
       </c>
       <c r="J31" t="n">
-        <v>214.130615234375</v>
+        <v>173.58642578125</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>163.021728515625</v>
+        <v>168.0319061279297</v>
       </c>
       <c r="H32" t="n">
-        <v>30.75051879882812</v>
+        <v>39.44328308105469</v>
       </c>
       <c r="I32" t="n">
-        <v>54.17394638061523</v>
+        <v>65.49922943115234</v>
       </c>
       <c r="J32" t="n">
-        <v>47.86145782470703</v>
+        <v>57.67791366577148</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>158.8411712646484</v>
+        <v>162.7301788330078</v>
       </c>
       <c r="H33" t="n">
-        <v>29.52802848815918</v>
+        <v>36.15426635742188</v>
       </c>
       <c r="I33" t="n">
-        <v>99.00566864013672</v>
+        <v>111.6481323242188</v>
       </c>
       <c r="J33" t="n">
-        <v>51.82424926757812</v>
+        <v>59.297119140625</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>155.1410217285156</v>
+        <v>158.3905487060547</v>
       </c>
       <c r="H34" t="n">
-        <v>28.65460968017578</v>
+        <v>33.36716461181641</v>
       </c>
       <c r="I34" t="n">
-        <v>140.8182067871094</v>
+        <v>155.2045440673828</v>
       </c>
       <c r="J34" t="n">
-        <v>55.34552001953125</v>
+        <v>59.70999145507812</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5132598876953</v>
+        <v>155.4971771240234</v>
       </c>
       <c r="H35" t="n">
-        <v>27.7050895690918</v>
+        <v>29.57115364074707</v>
       </c>
       <c r="I35" t="n">
-        <v>186.9487457275391</v>
+        <v>203.6734771728516</v>
       </c>
       <c r="J35" t="n">
-        <v>60.8699951171875</v>
+        <v>61.20932769775391</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>151.7569274902344</v>
+        <v>155.126220703125</v>
       </c>
       <c r="H36" t="n">
-        <v>27.37192726135254</v>
+        <v>25.0837287902832</v>
       </c>
       <c r="I36" t="n">
-        <v>246.1636962890625</v>
+        <v>265.3224182128906</v>
       </c>
       <c r="J36" t="n">
-        <v>69.46842956542969</v>
+        <v>63.91997146606445</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>155.8046417236328</v>
+        <v>160.0442962646484</v>
       </c>
       <c r="H37" t="n">
-        <v>26.52426147460938</v>
+        <v>20.54321098327637</v>
       </c>
       <c r="I37" t="n">
-        <v>288.1708984375</v>
+        <v>308.214599609375</v>
       </c>
       <c r="J37" t="n">
-        <v>88.53833770751953</v>
+        <v>77.05408477783203</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>180.5251617431641</v>
+        <v>186.4446258544922</v>
       </c>
       <c r="H38" t="n">
-        <v>23.25578117370605</v>
+        <v>19.27371406555176</v>
       </c>
       <c r="I38" t="n">
-        <v>365.2651672363281</v>
+        <v>382.1390686035156</v>
       </c>
       <c r="J38" t="n">
-        <v>119.8075714111328</v>
+        <v>97.02379608154297</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>241.1914520263672</v>
+        <v>246.3132171630859</v>
       </c>
       <c r="H39" t="n">
-        <v>23.81652641296387</v>
+        <v>35.27829742431641</v>
       </c>
       <c r="I39" t="n">
-        <v>437.0435485839844</v>
+        <v>440.4371337890625</v>
       </c>
       <c r="J39" t="n">
-        <v>177.2533721923828</v>
+        <v>145.6100006103516</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>347.8937072753906</v>
+        <v>346.1310729980469</v>
       </c>
       <c r="H40" t="n">
-        <v>45.63919067382812</v>
+        <v>50.20939636230469</v>
       </c>
       <c r="I40" t="n">
-        <v>519.9348754882812</v>
+        <v>508.5928039550781</v>
       </c>
       <c r="J40" t="n">
-        <v>228.3119659423828</v>
+        <v>192.5083618164062</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>168.3251342773438</v>
+        <v>174.1573028564453</v>
       </c>
       <c r="H41" t="n">
-        <v>29.46594619750977</v>
+        <v>35.60470962524414</v>
       </c>
       <c r="I41" t="n">
-        <v>-24.07782745361328</v>
+        <v>-12.14912891387939</v>
       </c>
       <c r="J41" t="n">
-        <v>57.65219879150391</v>
+        <v>69.82099151611328</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4351043701172</v>
+        <v>170.1026458740234</v>
       </c>
       <c r="H42" t="n">
-        <v>28.05742835998535</v>
+        <v>32.54005432128906</v>
       </c>
       <c r="I42" t="n">
-        <v>6.320114612579346</v>
+        <v>18.90791893005371</v>
       </c>
       <c r="J42" t="n">
-        <v>62.32204818725586</v>
+        <v>74.21363830566406</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>162.2944641113281</v>
+        <v>166.1229705810547</v>
       </c>
       <c r="H43" t="n">
-        <v>27.07018089294434</v>
+        <v>29.75936508178711</v>
       </c>
       <c r="I43" t="n">
-        <v>36.95194244384766</v>
+        <v>50.85264587402344</v>
       </c>
       <c r="J43" t="n">
-        <v>67.36373138427734</v>
+        <v>77.95380401611328</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>159.3897857666016</v>
+        <v>162.5897674560547</v>
       </c>
       <c r="H44" t="n">
-        <v>26.16450881958008</v>
+        <v>26.97111129760742</v>
       </c>
       <c r="I44" t="n">
-        <v>83.01961517333984</v>
+        <v>98.71073150634766</v>
       </c>
       <c r="J44" t="n">
-        <v>72.42432403564453</v>
+        <v>80.02763366699219</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>157.1098175048828</v>
+        <v>160.1170501708984</v>
       </c>
       <c r="H45" t="n">
-        <v>25.68943405151367</v>
+        <v>24.04657554626465</v>
       </c>
       <c r="I45" t="n">
-        <v>128.8049926757812</v>
+        <v>146.4212036132812</v>
       </c>
       <c r="J45" t="n">
-        <v>81.82669067382812</v>
+        <v>85.85475158691406</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>160.1089935302734</v>
+        <v>163.8278045654297</v>
       </c>
       <c r="H46" t="n">
-        <v>24.98279571533203</v>
+        <v>19.90484809875488</v>
       </c>
       <c r="I46" t="n">
-        <v>201.4880828857422</v>
+        <v>219.7167510986328</v>
       </c>
       <c r="J46" t="n">
-        <v>101.0351486206055</v>
+        <v>97.79654693603516</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>176.3896026611328</v>
+        <v>181.4166870117188</v>
       </c>
       <c r="H47" t="n">
-        <v>21.76565361022949</v>
+        <v>18.4521427154541</v>
       </c>
       <c r="I47" t="n">
-        <v>271.9720153808594</v>
+        <v>286.3673095703125</v>
       </c>
       <c r="J47" t="n">
-        <v>130.8252105712891</v>
+        <v>119.9544219970703</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>242.034912109375</v>
+        <v>246.9465484619141</v>
       </c>
       <c r="H48" t="n">
-        <v>22.49149513244629</v>
+        <v>33.56156158447266</v>
       </c>
       <c r="I48" t="n">
-        <v>394.2418212890625</v>
+        <v>393.5727844238281</v>
       </c>
       <c r="J48" t="n">
-        <v>190.9713134765625</v>
+        <v>167.6762390136719</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>344.7410888671875</v>
+        <v>343.0668640136719</v>
       </c>
       <c r="H49" t="n">
-        <v>46.25636291503906</v>
+        <v>50.0131950378418</v>
       </c>
       <c r="I49" t="n">
-        <v>494.0201110839844</v>
+        <v>478.2432556152344</v>
       </c>
       <c r="J49" t="n">
-        <v>243.7754516601562</v>
+        <v>216.2134399414062</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>174.2476806640625</v>
+        <v>180.5802001953125</v>
       </c>
       <c r="H50" t="n">
-        <v>27.35542488098145</v>
+        <v>30.06867980957031</v>
       </c>
       <c r="I50" t="n">
-        <v>-92.97235107421875</v>
+        <v>-81.05984497070312</v>
       </c>
       <c r="J50" t="n">
-        <v>68.75092315673828</v>
+        <v>83.69716644287109</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>172.9969329833984</v>
+        <v>178.432373046875</v>
       </c>
       <c r="H51" t="n">
-        <v>25.9286003112793</v>
+        <v>27.4542236328125</v>
       </c>
       <c r="I51" t="n">
-        <v>-71.40711975097656</v>
+        <v>-59.36069869995117</v>
       </c>
       <c r="J51" t="n">
-        <v>72.68698883056641</v>
+        <v>88.31951904296875</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>172.0478973388672</v>
+        <v>176.8131713867188</v>
       </c>
       <c r="H52" t="n">
-        <v>24.61868476867676</v>
+        <v>25.12113761901855</v>
       </c>
       <c r="I52" t="n">
-        <v>-54.73490524291992</v>
+        <v>-42.17056655883789</v>
       </c>
       <c r="J52" t="n">
-        <v>76.74506378173828</v>
+        <v>92.58118438720703</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>168.6350402832031</v>
+        <v>172.6457061767578</v>
       </c>
       <c r="H53" t="n">
-        <v>24.12240028381348</v>
+        <v>23.53412055969238</v>
       </c>
       <c r="I53" t="n">
-        <v>-16.40309715270996</v>
+        <v>-2.306137800216675</v>
       </c>
       <c r="J53" t="n">
-        <v>81.11581420898438</v>
+        <v>95.7227783203125</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>165.9680328369141</v>
+        <v>169.5217742919922</v>
       </c>
       <c r="H54" t="n">
-        <v>23.81582641601562</v>
+        <v>21.44337463378906</v>
       </c>
       <c r="I54" t="n">
-        <v>34.03464889526367</v>
+        <v>50.10987854003906</v>
       </c>
       <c r="J54" t="n">
-        <v>90.49518585205078</v>
+        <v>102.8501586914062</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>166.9949188232422</v>
+        <v>170.7345428466797</v>
       </c>
       <c r="H55" t="n">
-        <v>23.25672912597656</v>
+        <v>19.19109725952148</v>
       </c>
       <c r="I55" t="n">
-        <v>94.08162689208984</v>
+        <v>110.8473892211914</v>
       </c>
       <c r="J55" t="n">
-        <v>107.0514297485352</v>
+        <v>116.1754684448242</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>180.6329345703125</v>
+        <v>185.4808197021484</v>
       </c>
       <c r="H56" t="n">
-        <v>20.69558906555176</v>
+        <v>17.82811737060547</v>
       </c>
       <c r="I56" t="n">
-        <v>196.1434936523438</v>
+        <v>208.7887573242188</v>
       </c>
       <c r="J56" t="n">
-        <v>139.4230194091797</v>
+        <v>140.4420013427734</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>233.0327606201172</v>
+        <v>238.2976837158203</v>
       </c>
       <c r="H57" t="n">
-        <v>21.13805198669434</v>
+        <v>29.6710376739502</v>
       </c>
       <c r="I57" t="n">
-        <v>338.5420837402344</v>
+        <v>337.6574401855469</v>
       </c>
       <c r="J57" t="n">
-        <v>192.2789764404297</v>
+        <v>179.7910308837891</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>333.8228454589844</v>
+        <v>333.4931030273438</v>
       </c>
       <c r="H58" t="n">
-        <v>46.4339599609375</v>
+        <v>48.78359985351562</v>
       </c>
       <c r="I58" t="n">
-        <v>458.0748596191406</v>
+        <v>439.476806640625</v>
       </c>
       <c r="J58" t="n">
-        <v>254.3246002197266</v>
+        <v>237.3777923583984</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>182.9472808837891</v>
+        <v>189.327880859375</v>
       </c>
       <c r="H59" t="n">
-        <v>22.97782897949219</v>
+        <v>22.57182121276855</v>
       </c>
       <c r="I59" t="n">
-        <v>-151.569580078125</v>
+        <v>-141.4463348388672</v>
       </c>
       <c r="J59" t="n">
-        <v>81.54673004150391</v>
+        <v>100.77099609375</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>181.588623046875</v>
+        <v>187.3828887939453</v>
       </c>
       <c r="H60" t="n">
-        <v>22.18337631225586</v>
+        <v>21.1182918548584</v>
       </c>
       <c r="I60" t="n">
-        <v>-132.0975952148438</v>
+        <v>-121.3078842163086</v>
       </c>
       <c r="J60" t="n">
-        <v>84.47854614257812</v>
+        <v>104.2041473388672</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>179.0693359375</v>
+        <v>184.1587371826172</v>
       </c>
       <c r="H61" t="n">
-        <v>21.8122673034668</v>
+        <v>19.97771835327148</v>
       </c>
       <c r="I61" t="n">
-        <v>-91.36423492431641</v>
+        <v>-78.96118927001953</v>
       </c>
       <c r="J61" t="n">
-        <v>88.02870941162109</v>
+        <v>107.1294860839844</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>177.7878265380859</v>
+        <v>182.4555511474609</v>
       </c>
       <c r="H62" t="n">
-        <v>21.6114616394043</v>
+        <v>18.94608879089355</v>
       </c>
       <c r="I62" t="n">
-        <v>-51.26272583007812</v>
+        <v>-37.08415222167969</v>
       </c>
       <c r="J62" t="n">
-        <v>93.82625579833984</v>
+        <v>111.8779144287109</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>176.9291229248047</v>
+        <v>181.446044921875</v>
       </c>
       <c r="H63" t="n">
-        <v>21.73728561401367</v>
+        <v>17.75966835021973</v>
       </c>
       <c r="I63" t="n">
-        <v>13.08128356933594</v>
+        <v>29.02118682861328</v>
       </c>
       <c r="J63" t="n">
-        <v>110.9309005737305</v>
+        <v>128.1594848632812</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>187.9136352539062</v>
+        <v>193.1424407958984</v>
       </c>
       <c r="H64" t="n">
-        <v>20.36422920227051</v>
+        <v>16.69878005981445</v>
       </c>
       <c r="I64" t="n">
-        <v>121.560417175293</v>
+        <v>135.1888732910156</v>
       </c>
       <c r="J64" t="n">
-        <v>137.0336456298828</v>
+        <v>148.3706359863281</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>227.0874633789062</v>
+        <v>232.8231353759766</v>
       </c>
       <c r="H65" t="n">
-        <v>21.86165046691895</v>
+        <v>25.86772346496582</v>
       </c>
       <c r="I65" t="n">
-        <v>255.3296356201172</v>
+        <v>255.5519561767578</v>
       </c>
       <c r="J65" t="n">
-        <v>191.6862030029297</v>
+        <v>196.9514007568359</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>194.5930023193359</v>
+        <v>201.497802734375</v>
       </c>
       <c r="H66" t="n">
-        <v>18.91109466552734</v>
+        <v>18.83133125305176</v>
       </c>
       <c r="I66" t="n">
-        <v>-194.1848602294922</v>
+        <v>-186.7795257568359</v>
       </c>
       <c r="J66" t="n">
-        <v>87.81034088134766</v>
+        <v>109.2639999389648</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>192.5749969482422</v>
+        <v>199.0305938720703</v>
       </c>
       <c r="H67" t="n">
-        <v>19.20517158508301</v>
+        <v>17.9964656829834</v>
       </c>
       <c r="I67" t="n">
-        <v>-161.068359375</v>
+        <v>-151.3687591552734</v>
       </c>
       <c r="J67" t="n">
-        <v>91.34804534912109</v>
+        <v>112.6577377319336</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>189.8651733398438</v>
+        <v>195.8354949951172</v>
       </c>
       <c r="H68" t="n">
-        <v>19.87074851989746</v>
+        <v>17.34611129760742</v>
       </c>
       <c r="I68" t="n">
-        <v>-119.5554428100586</v>
+        <v>-106.9864196777344</v>
       </c>
       <c r="J68" t="n">
-        <v>97.77185821533203</v>
+        <v>118.9994659423828</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>189.5093994140625</v>
+        <v>195.2469024658203</v>
       </c>
       <c r="H69" t="n">
-        <v>20.68015098571777</v>
+        <v>16.82510566711426</v>
       </c>
       <c r="I69" t="n">
-        <v>-51.05009078979492</v>
+        <v>-35.56551742553711</v>
       </c>
       <c r="J69" t="n">
-        <v>110.1130599975586</v>
+        <v>130.8558349609375</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>194.0411987304688</v>
+        <v>199.8866119384766</v>
       </c>
       <c r="H70" t="n">
-        <v>20.87379264831543</v>
+        <v>16.5980396270752</v>
       </c>
       <c r="I70" t="n">
-        <v>50.06910705566406</v>
+        <v>64.84228515625</v>
       </c>
       <c r="J70" t="n">
-        <v>135.5113830566406</v>
+        <v>155.4646148681641</v>
       </c>
     </row>
   </sheetData>
